--- a/scripts/india_plfs/wage_data/test_data/test.xlsx
+++ b/scripts/india_plfs/wage_data/test_data/test.xlsx
@@ -396,10 +396,10 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J46"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
@@ -651,7 +651,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>14508.45</v>
+        <v>2.01</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>6827.62</v>
@@ -1146,7 +1146,7 @@
         <v>20133.96</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>22849.48</v>
+        <v>2.02</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>17838.04</v>
@@ -1283,7 +1283,7 @@
         <v>18870.77</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>20409.29</v>
+        <v>101.11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
